--- a/FORO_REGIONAL_DO_PARTENON.xlsx
+++ b/FORO_REGIONAL_DO_PARTENON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DA88FA-322B-4341-875C-21E6C55EFC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD8FD26E-ECF3-4EEF-A86C-A060BF64ECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{490D324A-F125-466F-920B-8F48C568C6C0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{597BC960-6FB5-4698-A3C4-E88595EB267D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,10 +1109,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E39E2F-29C2-4926-9BEB-1D902C6168F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800A0DD6-BCCB-44EC-A01B-7890AD2195BE}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B939E8BF-7C0F-4A34-9D81-43E22AE05BEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBE8024-38AB-4145-B259-7540DE219A83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1213,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D7B1E1-BA4A-4AB4-A4B8-24EFB0BB3859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37342F08-214C-4835-B110-B033ECC2C029}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1232,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64FD675-2FCB-C3A1-29AD-5BB5287C9034}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDEC6DD-8E87-DCE1-FFCB-3F6824D1EF4B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4540618D-980E-331A-80D9-5A9D4B4BAEF1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEF927D-D1BD-612F-29FC-D9FED0A6A029}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F72F7F8-C728-DBBA-B851-F3855A257FD6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B027C03D-65AA-4C7F-30FE-B37D7E5E9799}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BD964B-0E22-B194-9CF4-32469916FDF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA07614-A472-D48F-D7B1-5DCFDEA74B51}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A30783-AD5C-876F-FAA1-26D15B556179}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D499CC99-A786-C119-FEF2-DA7BA0BB64F7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0B211A-FBF9-4FBC-AA47-F08D5CAFD553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB69DB1-0748-4439-8F5D-099A241ED585}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FFE926-10FD-4590-BB14-3688D259D5F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3499B4-3DF9-49A2-9BF4-CD145482426E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F3C032-D2DA-4769-8EDE-865C0AD66B92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B972D92E-9920-4CAD-B5B3-74A031B1911E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F781D9A7-B0B8-46F7-807F-E28727101D95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500FF529-B5A1-4086-8008-75E31911D056}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FORO_REGIONAL_DO_PARTENON.xlsx
+++ b/FORO_REGIONAL_DO_PARTENON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD8FD26E-ECF3-4EEF-A86C-A060BF64ECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13B5101F-27F3-47EB-B2F2-CE04DCFA693A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{597BC960-6FB5-4698-A3C4-E88595EB267D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D530C4CE-6293-4E80-A285-7AC2B1502BA3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,10 +1109,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800A0DD6-BCCB-44EC-A01B-7890AD2195BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318D6B13-3627-42C5-9806-AC8D9FB40406}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBE8024-38AB-4145-B259-7540DE219A83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199DF854-490B-46BC-94A3-15DE1E63BD6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1213,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37342F08-214C-4835-B110-B033ECC2C029}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38DD7E5-E171-4482-BAF8-133B5CD3601A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1232,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDEC6DD-8E87-DCE1-FFCB-3F6824D1EF4B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1538ED-4F6E-8B38-42CE-429ECC9F3232}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEF927D-D1BD-612F-29FC-D9FED0A6A029}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478FFD4D-1424-91F9-90AA-C92480451DBE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B027C03D-65AA-4C7F-30FE-B37D7E5E9799}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93836582-B286-72DD-EF1F-8C48E7EA6992}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA07614-A472-D48F-D7B1-5DCFDEA74B51}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A725DA1-4252-F92F-529B-3DC6305C36C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D499CC99-A786-C119-FEF2-DA7BA0BB64F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DEF4B9-ABCB-9181-B32E-3D875D840D7C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB69DB1-0748-4439-8F5D-099A241ED585}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FD4882-7ABB-4F28-A667-DCF1EEE556C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3499B4-3DF9-49A2-9BF4-CD145482426E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BB8648-F505-4593-86B8-3C995F6D96B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B972D92E-9920-4CAD-B5B3-74A031B1911E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8A6770-7016-4C7F-9811-F91943176231}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500FF529-B5A1-4086-8008-75E31911D056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18B425-8FB5-4D13-B30F-13C86ADAD022}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FORO_REGIONAL_DO_PARTENON.xlsx
+++ b/FORO_REGIONAL_DO_PARTENON.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13B5101F-27F3-47EB-B2F2-CE04DCFA693A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D12352-80D0-4C55-B4F6-1CCE3E6EC761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="4" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="4" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
@@ -1079,7 +1079,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D530C4CE-6293-4E80-A285-7AC2B1502BA3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FE5EAFD6-C1C8-47A7-8BBD-7DEAA9915232}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,10 +1109,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318D6B13-3627-42C5-9806-AC8D9FB40406}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89378EBF-3436-49F3-AF8F-FAF60724536C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199DF854-490B-46BC-94A3-15DE1E63BD6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7935AB25-3F83-4268-9EDD-5EBF5B5E03DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1213,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38DD7E5-E171-4482-BAF8-133B5CD3601A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2E89B1-834B-43F7-A8A7-434D17DC1511}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1232,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1538ED-4F6E-8B38-42CE-429ECC9F3232}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B506DA9C-ABD2-C195-6E8C-F6014716C9C9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478FFD4D-1424-91F9-90AA-C92480451DBE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723476BC-EC9D-7043-989E-EF7513E75F2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93836582-B286-72DD-EF1F-8C48E7EA6992}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEE46EF-588F-5B67-FDBF-185BB2566109}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A725DA1-4252-F92F-529B-3DC6305C36C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8DA121-D3D3-7FA5-43B7-27ACCCFEF28E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DEF4B9-ABCB-9181-B32E-3D875D840D7C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B54922-3A70-8E90-C251-09254CB42E54}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FD4882-7ABB-4F28-A667-DCF1EEE556C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C02D62-DC7A-4FD3-9579-B9634B6CC773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BB8648-F505-4593-86B8-3C995F6D96B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE985D4-CDED-4C9D-B6DA-DC73DA559DF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8A6770-7016-4C7F-9811-F91943176231}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E22813-07D2-40A9-9575-36AC451C3003}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18B425-8FB5-4D13-B30F-13C86ADAD022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02872498-2643-4BE9-9528-BF680729F481}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FORO_REGIONAL_DO_PARTENON.xlsx
+++ b/FORO_REGIONAL_DO_PARTENON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D12352-80D0-4C55-B4F6-1CCE3E6EC761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7974B1DB-4E8E-4558-8762-0256059844C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FE5EAFD6-C1C8-47A7-8BBD-7DEAA9915232}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B1BF099F-ED62-4BB0-87DF-693C654A9BC3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,10 +1109,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89378EBF-3436-49F3-AF8F-FAF60724536C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FB0C5D-F0DF-466B-ABC5-DE83FEDB2E98}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7935AB25-3F83-4268-9EDD-5EBF5B5E03DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FCC0FA-F3B1-4AC4-BF97-BFE08869AA42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1213,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2E89B1-834B-43F7-A8A7-434D17DC1511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4B308E-FB9E-44A8-81A2-9A2CEC1EF253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1232,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B506DA9C-ABD2-C195-6E8C-F6014716C9C9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769A2483-A21E-9841-9562-4473AB64C329}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723476BC-EC9D-7043-989E-EF7513E75F2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D47FB4-CB96-EB74-E7D8-4BD5A4876A54}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEE46EF-588F-5B67-FDBF-185BB2566109}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE03CEA-29BE-8DCF-D98C-5819A302FB1E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8DA121-D3D3-7FA5-43B7-27ACCCFEF28E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BC496D-CAA4-7563-7279-6DB34A6A23F2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B54922-3A70-8E90-C251-09254CB42E54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83A1DBF-E8B9-5C33-5B1D-D61326832796}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C02D62-DC7A-4FD3-9579-B9634B6CC773}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C4D1BD-974B-47E6-9ACB-BE0B4625CD5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE985D4-CDED-4C9D-B6DA-DC73DA559DF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03234101-108E-436C-919A-C005A16F8BFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,50 +1468,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E22813-07D2-40A9-9575-36AC451C3003}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1799,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02872498-2643-4BE9-9528-BF680729F481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EDE7F2-0B3A-454B-8692-E7FE3BC61796}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
